--- a/Tiro parabolico.xlsx
+++ b/Tiro parabolico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Udea\Fisica_Experimental\Python_tiro_parabolico\Laboratorios_experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47525AFF-9C7C-4757-B608-9E132B975D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D4450A-C28F-4DA9-B702-BBF7D1FDACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{27B2260E-1732-473A-A4C6-EF485450A526}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27B2260E-1732-473A-A4C6-EF485450A526}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Incertidumbre del angulo [Grados °]</t>
   </si>
   <si>
-    <t>Incertidumbre del diametro [cm]</t>
-  </si>
-  <si>
     <t>Tiempo haz [µs]</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Incertidumbre de la distancia [cm]</t>
+  </si>
+  <si>
+    <t>Incertidumbre del diametro [mm]</t>
   </si>
 </sst>
 </file>
@@ -417,17 +417,29 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="es-CO" sz="1400" b="1"/>
+          <a:endParaRPr lang="es-CO" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>8. Adicionalmente, con los datos arrojados por el Arduino calcule la velocidad de la</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>esfera al final de la rampa.</a:t>
           </a:r>
         </a:p>
@@ -888,14 +900,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB0A434-4CF8-4720-80C9-5023400FF86F}">
   <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -958,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -967,10 +979,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -997,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>8</v>
@@ -1015,23 +1027,23 @@
         <v>3</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W1" s="5"/>
       <c r="X1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>8</v>
@@ -1040,22 +1052,22 @@
         <v>3</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>8</v>
@@ -1064,23 +1076,23 @@
         <v>3</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO1" s="5"/>
       <c r="AP1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>8</v>
@@ -1089,22 +1101,22 @@
         <v>3</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="BD1" s="2" t="s">
         <v>8</v>
@@ -1113,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
@@ -4312,16 +4324,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -4330,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>1</v>
@@ -5168,16 +5180,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -5186,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>5</v>
@@ -6027,16 +6039,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -6045,7 +6057,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>5</v>
@@ -6886,16 +6898,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -6904,7 +6916,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>5</v>
@@ -7722,7 +7734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B438412D-859A-475A-944A-4E937E87C61B}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J26"/>
     </sheetView>
   </sheetViews>
@@ -7745,16 +7757,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -7763,7 +7775,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>5</v>

--- a/Tiro parabolico.xlsx
+++ b/Tiro parabolico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Udea\Fisica_Experimental\Python_tiro_parabolico\Laboratorios_experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D4450A-C28F-4DA9-B702-BBF7D1FDACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F25B0F-E00B-457A-A1EB-273153FC29A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27B2260E-1732-473A-A4C6-EF485450A526}"/>
   </bookViews>
@@ -269,6 +269,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,9 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -316,8 +316,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>32085</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>120314</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -332,8 +332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="449179" y="5085346"/>
-          <a:ext cx="6817895" cy="4997115"/>
+          <a:off x="449179" y="5042032"/>
+          <a:ext cx="6875246" cy="5107808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -448,19 +448,31 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>9. Realice un histograma de frecuencias con los valores obtenidos para la velocidad a</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>partir de los cálculos de los puntos 6, 7 y 8 (un histograma para cada conjunto de</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>velocidades).</a:t>
           </a:r>
         </a:p>
@@ -469,13 +481,21 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>10. Determine el promedio, la mediana, la moda y desviación estándar de los datos de</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CO" sz="1400" b="1"/>
+            <a:rPr lang="es-CO" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>cada conjunto de velocidades obtenidos.</a:t>
           </a:r>
         </a:p>
@@ -900,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB0A434-4CF8-4720-80C9-5023400FF86F}">
   <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,22 +1149,22 @@
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>22.19</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="10">
+        <v>22.19</v>
+      </c>
+      <c r="B2" s="10">
         <v>0.01</v>
       </c>
-      <c r="C2" s="9">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
         <v>50</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <f xml:space="preserve"> 1/10</f>
         <v>0.1</v>
       </c>
@@ -1169,11 +1189,11 @@
       <c r="M2" s="1">
         <v>41.3</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="13">
         <f>E2*SIN(RADIANS(C2))</f>
         <v>8.6824088833465165</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="10">
         <f>E2*ABS(COS(RADIANS(C2)))*RADIANS(D2) + F2*ABS((SIN(RADIANS(C2))))</f>
         <v>0.87677170722819986</v>
       </c>
@@ -1195,11 +1215,11 @@
       <c r="V2" s="1">
         <v>0.1</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="13">
         <f>E7*SIN(RADIANS(C2))</f>
         <v>6.945927106677213</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="10">
         <f>E7 * ABS(COS(RADIANS(C2))) * RADIANS(D2)  + F2*ABS((SIN(RADIANS(C2))))</f>
         <v>0.70489032933589846</v>
       </c>
@@ -1221,11 +1241,11 @@
       <c r="AE2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG2" s="13">
+      <c r="AG2" s="14">
         <f>E12*SIN(RADIANS(C2))</f>
         <v>5.2094453300079095</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="10">
         <f>E12 * ABS(COS(RADIANS(C2))) * RADIANS(D2)  + F2*ABS((SIN(RADIANS(C2))))</f>
         <v>0.53300895144359717</v>
       </c>
@@ -1247,11 +1267,11 @@
       <c r="AN2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP2" s="12">
+      <c r="AP2" s="13">
         <f>E17*SIN(RADIANS(C2))</f>
         <v>3.4729635533386065</v>
       </c>
-      <c r="AQ2" s="9">
+      <c r="AQ2" s="10">
         <f>E17 * ABS(COS(RADIANS(C2))) * RADIANS(D2)  + F2*ABS((SIN(RADIANS(C2))))</f>
         <v>0.36112757355129571</v>
       </c>
@@ -1273,11 +1293,11 @@
       <c r="AW2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY2" s="12">
+      <c r="AY2" s="13">
         <f>E22*SIN(RADIANS(C2))</f>
         <v>1.7364817766693033</v>
       </c>
-      <c r="AZ2" s="9">
+      <c r="AZ2" s="10">
         <f>E22 * ABS(COS(RADIANS(C2))) * RADIANS(D2)  + F2*ABS((SIN(RADIANS(C2))))</f>
         <v>0.18924619565899437</v>
       </c>
@@ -1301,12 +1321,12 @@
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1">
         <v>20378</v>
       </c>
@@ -1328,8 +1348,8 @@
       <c r="M3" s="1">
         <v>41.5</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="10"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="1">
         <v>19705</v>
       </c>
@@ -1348,8 +1368,8 @@
       <c r="V3" s="1">
         <v>0.1</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="10"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="11"/>
       <c r="Z3" s="1">
         <v>22157</v>
       </c>
@@ -1368,8 +1388,8 @@
       <c r="AE3" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="10"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="11"/>
       <c r="AI3" s="1">
         <v>25710</v>
       </c>
@@ -1388,8 +1408,8 @@
       <c r="AN3" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="10"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="11"/>
       <c r="AR3" s="1">
         <v>32116</v>
       </c>
@@ -1408,8 +1428,8 @@
       <c r="AW3" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="10"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="11"/>
       <c r="BA3" s="1">
         <v>47401</v>
       </c>
@@ -1430,12 +1450,12 @@
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1">
         <v>20499</v>
       </c>
@@ -1451,8 +1471,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="10"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="1">
         <v>19049</v>
       </c>
@@ -1471,8 +1491,8 @@
       <c r="V4" s="1">
         <v>0.1</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="10"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="11"/>
       <c r="Z4" s="1">
         <v>22035</v>
       </c>
@@ -1491,8 +1511,8 @@
       <c r="AE4" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="10"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="11"/>
       <c r="AI4" s="1">
         <v>26027</v>
       </c>
@@ -1511,8 +1531,8 @@
       <c r="AN4" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="10"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="11"/>
       <c r="AR4" s="1">
         <v>32148</v>
       </c>
@@ -1531,8 +1551,8 @@
       <c r="AW4" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="10"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="11"/>
       <c r="BA4" s="1">
         <v>47818</v>
       </c>
@@ -1553,12 +1573,12 @@
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1">
         <v>20394</v>
       </c>
@@ -1574,8 +1594,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="1">
         <v>19610</v>
       </c>
@@ -1594,8 +1614,8 @@
       <c r="V5" s="1">
         <v>0.1</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="10"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="1">
         <v>21803</v>
       </c>
@@ -1614,8 +1634,8 @@
       <c r="AE5" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="10"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="11"/>
       <c r="AI5" s="1">
         <v>25735</v>
       </c>
@@ -1634,8 +1654,8 @@
       <c r="AN5" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="10"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="11"/>
       <c r="AR5" s="1">
         <v>31987</v>
       </c>
@@ -1654,8 +1674,8 @@
       <c r="AW5" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="10"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="11"/>
       <c r="BA5" s="1">
         <v>47469</v>
       </c>
@@ -1676,12 +1696,12 @@
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="1">
         <v>20498</v>
       </c>
@@ -1697,8 +1717,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="10"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="1">
         <v>19737</v>
       </c>
@@ -1717,8 +1737,8 @@
       <c r="V6" s="1">
         <v>0.1</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="10"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="1">
         <v>22106</v>
       </c>
@@ -1737,8 +1757,8 @@
       <c r="AE6" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="10"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="11"/>
       <c r="AI6" s="1">
         <v>25760</v>
       </c>
@@ -1757,8 +1777,8 @@
       <c r="AN6" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="10"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="11"/>
       <c r="AR6" s="1">
         <v>32744</v>
       </c>
@@ -1777,8 +1797,8 @@
       <c r="AW6" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="10"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="11"/>
       <c r="BA6" s="1">
         <v>47431</v>
       </c>
@@ -1799,14 +1819,14 @@
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10">
         <v>40</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1">
         <v>22907</v>
       </c>
@@ -1822,8 +1842,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="1">
         <v>19652</v>
       </c>
@@ -1842,8 +1862,8 @@
       <c r="V7" s="1">
         <v>0.1</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="10"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="1">
         <v>22104</v>
       </c>
@@ -1862,8 +1882,8 @@
       <c r="AE7" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="10"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="11"/>
       <c r="AI7" s="1">
         <v>25867</v>
       </c>
@@ -1882,8 +1902,8 @@
       <c r="AN7" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="10"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="11"/>
       <c r="AR7" s="1">
         <v>32180</v>
       </c>
@@ -1902,8 +1922,8 @@
       <c r="AW7" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="10"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="11"/>
       <c r="BA7" s="1">
         <v>47118</v>
       </c>
@@ -1924,12 +1944,12 @@
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="1">
         <v>22901</v>
       </c>
@@ -1945,8 +1965,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="10"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="1">
         <v>19704</v>
       </c>
@@ -1965,8 +1985,8 @@
       <c r="V8" s="1">
         <v>0.1</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="10"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="1">
         <v>22134</v>
       </c>
@@ -1985,8 +2005,8 @@
       <c r="AE8" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="10"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="11"/>
       <c r="AI8" s="1">
         <v>25778</v>
       </c>
@@ -2005,8 +2025,8 @@
       <c r="AN8" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="10"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="11"/>
       <c r="AR8" s="1">
         <v>31918</v>
       </c>
@@ -2025,8 +2045,8 @@
       <c r="AW8" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="10"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="11"/>
       <c r="BA8" s="1">
         <v>47103</v>
       </c>
@@ -2047,12 +2067,12 @@
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="1">
         <v>22954</v>
       </c>
@@ -2068,8 +2088,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="10"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="1">
         <v>19495</v>
       </c>
@@ -2088,8 +2108,8 @@
       <c r="V9" s="1">
         <v>0.1</v>
       </c>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="10"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="1">
         <v>22350</v>
       </c>
@@ -2108,8 +2128,8 @@
       <c r="AE9" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="10"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="11"/>
       <c r="AI9" s="1">
         <v>25725</v>
       </c>
@@ -2128,8 +2148,8 @@
       <c r="AN9" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="10"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="11"/>
       <c r="AR9" s="1">
         <v>32059</v>
       </c>
@@ -2148,8 +2168,8 @@
       <c r="AW9" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY9" s="12"/>
-      <c r="AZ9" s="10"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="11"/>
       <c r="BA9" s="1">
         <v>47744</v>
       </c>
@@ -2170,12 +2190,12 @@
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="1">
         <v>22801</v>
       </c>
@@ -2191,8 +2211,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="10"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="1">
         <v>19760</v>
       </c>
@@ -2211,8 +2231,8 @@
       <c r="V10" s="1">
         <v>0.1</v>
       </c>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="10"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="1">
         <v>22093</v>
       </c>
@@ -2231,8 +2251,8 @@
       <c r="AE10" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="10"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="11"/>
       <c r="AI10" s="1">
         <v>25814</v>
       </c>
@@ -2251,8 +2271,8 @@
       <c r="AN10" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="10"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="11"/>
       <c r="AR10" s="1">
         <v>32190</v>
       </c>
@@ -2271,8 +2291,8 @@
       <c r="AW10" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY10" s="12"/>
-      <c r="AZ10" s="10"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="11"/>
       <c r="BA10" s="1">
         <v>46921</v>
       </c>
@@ -2293,12 +2313,12 @@
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1">
         <v>22796</v>
       </c>
@@ -2314,8 +2334,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="1">
         <v>19606</v>
       </c>
@@ -2334,8 +2354,8 @@
       <c r="V11" s="1">
         <v>0.1</v>
       </c>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="10"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="1">
         <v>22200</v>
       </c>
@@ -2354,8 +2374,8 @@
       <c r="AE11" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="10"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="11"/>
       <c r="AI11" s="1">
         <v>25896</v>
       </c>
@@ -2374,8 +2394,8 @@
       <c r="AN11" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="10"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="11"/>
       <c r="AR11" s="1">
         <v>32197</v>
       </c>
@@ -2394,8 +2414,8 @@
       <c r="AW11" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY11" s="12"/>
-      <c r="AZ11" s="10"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="11"/>
       <c r="BA11" s="1">
         <v>47272</v>
       </c>
@@ -2416,14 +2436,14 @@
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10">
         <v>30</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="1">
         <v>26383</v>
       </c>
@@ -2439,8 +2459,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="10"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="1">
         <v>19720</v>
       </c>
@@ -2459,8 +2479,8 @@
       <c r="V12" s="1">
         <v>0.1</v>
       </c>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="10"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="1">
         <v>22202</v>
       </c>
@@ -2479,8 +2499,8 @@
       <c r="AE12" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="10"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="11"/>
       <c r="AI12" s="1">
         <v>25741</v>
       </c>
@@ -2499,8 +2519,8 @@
       <c r="AN12" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="10"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="11"/>
       <c r="AR12" s="1">
         <v>32198</v>
       </c>
@@ -2519,8 +2539,8 @@
       <c r="AW12" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY12" s="12"/>
-      <c r="AZ12" s="10"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="11"/>
       <c r="BA12" s="1">
         <v>47471</v>
       </c>
@@ -2541,12 +2561,12 @@
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="1">
         <v>26174</v>
       </c>
@@ -2562,8 +2582,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="10"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="1">
         <v>19576</v>
       </c>
@@ -2582,8 +2602,8 @@
       <c r="V13" s="1">
         <v>0.1</v>
       </c>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="10"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="1">
         <v>22055</v>
       </c>
@@ -2602,8 +2622,8 @@
       <c r="AE13" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="10"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="11"/>
       <c r="AI13" s="1">
         <v>25687</v>
       </c>
@@ -2622,8 +2642,8 @@
       <c r="AN13" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="10"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="11"/>
       <c r="AR13" s="1">
         <v>31934</v>
       </c>
@@ -2642,8 +2662,8 @@
       <c r="AW13" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY13" s="12"/>
-      <c r="AZ13" s="10"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="11"/>
       <c r="BA13" s="1">
         <v>47616</v>
       </c>
@@ -2664,12 +2684,12 @@
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="1">
         <v>26251</v>
       </c>
@@ -2685,8 +2705,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="10"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="1">
         <v>19376</v>
       </c>
@@ -2705,8 +2725,8 @@
       <c r="V14" s="1">
         <v>0.1</v>
       </c>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="10"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1">
         <v>22427</v>
       </c>
@@ -2725,8 +2745,8 @@
       <c r="AE14" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="10"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="11"/>
       <c r="AI14" s="1">
         <v>25933</v>
       </c>
@@ -2745,8 +2765,8 @@
       <c r="AN14" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="10"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="11"/>
       <c r="AR14" s="1">
         <v>32389</v>
       </c>
@@ -2765,8 +2785,8 @@
       <c r="AW14" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY14" s="12"/>
-      <c r="AZ14" s="10"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="11"/>
       <c r="BA14" s="1">
         <v>47269</v>
       </c>
@@ -2787,12 +2807,12 @@
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="1">
         <v>26144</v>
       </c>
@@ -2808,8 +2828,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="10"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="1">
         <v>19731</v>
       </c>
@@ -2828,8 +2848,8 @@
       <c r="V15" s="1">
         <v>0.1</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="10"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="1">
         <v>22103</v>
       </c>
@@ -2848,8 +2868,8 @@
       <c r="AE15" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="10"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="11"/>
       <c r="AI15" s="1">
         <v>25611</v>
       </c>
@@ -2868,8 +2888,8 @@
       <c r="AN15" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="10"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="11"/>
       <c r="AR15" s="1">
         <v>32115</v>
       </c>
@@ -2888,8 +2908,8 @@
       <c r="AW15" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="10"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="11"/>
       <c r="BA15" s="1">
         <v>47082</v>
       </c>
@@ -2910,12 +2930,12 @@
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="1">
         <v>26015</v>
       </c>
@@ -2931,8 +2951,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="10"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="1">
         <v>19515</v>
       </c>
@@ -2951,8 +2971,8 @@
       <c r="V16" s="1">
         <v>0.1</v>
       </c>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="10"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1">
         <v>22415</v>
       </c>
@@ -2971,8 +2991,8 @@
       <c r="AE16" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="10"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="11"/>
       <c r="AI16" s="1">
         <v>25666</v>
       </c>
@@ -2991,8 +3011,8 @@
       <c r="AN16" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="10"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="11"/>
       <c r="AR16" s="1">
         <v>32271</v>
       </c>
@@ -3011,8 +3031,8 @@
       <c r="AW16" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="10"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="11"/>
       <c r="BA16" s="1">
         <v>47093</v>
       </c>
@@ -3033,14 +3053,14 @@
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10">
         <v>20</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="1">
         <v>32047</v>
       </c>
@@ -3056,8 +3076,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="10"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="1">
         <v>19704</v>
       </c>
@@ -3076,8 +3096,8 @@
       <c r="V17" s="1">
         <v>0.1</v>
       </c>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="10"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1">
         <v>22353</v>
       </c>
@@ -3096,8 +3116,8 @@
       <c r="AE17" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="10"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="11"/>
       <c r="AI17" s="1">
         <v>25676</v>
       </c>
@@ -3116,8 +3136,8 @@
       <c r="AN17" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="10"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="11"/>
       <c r="AR17" s="1">
         <v>32357</v>
       </c>
@@ -3136,8 +3156,8 @@
       <c r="AW17" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="10"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="11"/>
       <c r="BA17" s="1">
         <v>47294</v>
       </c>
@@ -3158,12 +3178,12 @@
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="1">
         <v>32038</v>
       </c>
@@ -3179,8 +3199,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="10"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="1">
         <v>19592</v>
       </c>
@@ -3199,8 +3219,8 @@
       <c r="V18" s="1">
         <v>0.1</v>
       </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="10"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="11"/>
       <c r="Z18" s="1">
         <v>22065</v>
       </c>
@@ -3219,8 +3239,8 @@
       <c r="AE18" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="10"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="11"/>
       <c r="AI18" s="1">
         <v>25790</v>
       </c>
@@ -3239,8 +3259,8 @@
       <c r="AN18" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="10"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="11"/>
       <c r="AR18" s="1">
         <v>32173</v>
       </c>
@@ -3259,8 +3279,8 @@
       <c r="AW18" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY18" s="12"/>
-      <c r="AZ18" s="10"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="11"/>
       <c r="BA18" s="1">
         <v>47557</v>
       </c>
@@ -3281,12 +3301,12 @@
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="1">
         <v>32019</v>
       </c>
@@ -3302,8 +3322,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="10"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="1">
         <v>19692</v>
       </c>
@@ -3322,8 +3342,8 @@
       <c r="V19" s="1">
         <v>0.1</v>
       </c>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="10"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="1">
         <v>22281</v>
       </c>
@@ -3342,8 +3362,8 @@
       <c r="AE19" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="10"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="11"/>
       <c r="AI19" s="1">
         <v>25804</v>
       </c>
@@ -3362,8 +3382,8 @@
       <c r="AN19" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="10"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="11"/>
       <c r="AR19" s="1">
         <v>32379</v>
       </c>
@@ -3382,8 +3402,8 @@
       <c r="AW19" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY19" s="12"/>
-      <c r="AZ19" s="10"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="11"/>
       <c r="BA19" s="1">
         <v>47611</v>
       </c>
@@ -3404,12 +3424,12 @@
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="1">
         <v>32577</v>
       </c>
@@ -3425,8 +3445,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="10"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="1">
         <v>19658</v>
       </c>
@@ -3445,8 +3465,8 @@
       <c r="V20" s="1">
         <v>0.1</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="10"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="1">
         <v>22149</v>
       </c>
@@ -3465,8 +3485,8 @@
       <c r="AE20" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="10"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="11"/>
       <c r="AI20" s="1">
         <v>25850</v>
       </c>
@@ -3485,8 +3505,8 @@
       <c r="AN20" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="10"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="11"/>
       <c r="AR20" s="1">
         <v>32364</v>
       </c>
@@ -3505,8 +3525,8 @@
       <c r="AW20" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="10"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="11"/>
       <c r="BA20" s="1">
         <v>47794</v>
       </c>
@@ -3527,12 +3547,12 @@
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="1">
         <v>32655</v>
       </c>
@@ -3548,8 +3568,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="10"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="1">
         <v>19754</v>
       </c>
@@ -3568,8 +3588,8 @@
       <c r="V21" s="1">
         <v>0.1</v>
       </c>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="10"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="1">
         <v>22192</v>
       </c>
@@ -3588,8 +3608,8 @@
       <c r="AE21" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="10"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="11"/>
       <c r="AI21" s="1">
         <v>25756</v>
       </c>
@@ -3608,8 +3628,8 @@
       <c r="AN21" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="10"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="11"/>
       <c r="AR21" s="1">
         <v>32203</v>
       </c>
@@ -3628,8 +3648,8 @@
       <c r="AW21" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY21" s="12"/>
-      <c r="AZ21" s="10"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="11"/>
       <c r="BA21" s="1">
         <v>47222</v>
       </c>
@@ -3650,14 +3670,14 @@
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9">
-        <v>10</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10">
+        <v>10</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="1">
         <v>47522</v>
       </c>
@@ -3673,8 +3693,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="10"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="1">
         <v>19773</v>
       </c>
@@ -3693,8 +3713,8 @@
       <c r="V22" s="1">
         <v>0.1</v>
       </c>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="10"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="1">
         <v>22255</v>
       </c>
@@ -3713,8 +3733,8 @@
       <c r="AE22" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="10"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="11"/>
       <c r="AI22" s="1">
         <v>25833</v>
       </c>
@@ -3733,8 +3753,8 @@
       <c r="AN22" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="10"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="11"/>
       <c r="AR22" s="1">
         <v>32103</v>
       </c>
@@ -3753,8 +3773,8 @@
       <c r="AW22" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="10"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="11"/>
       <c r="BA22" s="1">
         <v>47581</v>
       </c>
@@ -3775,12 +3795,12 @@
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="1">
         <v>46847</v>
       </c>
@@ -3796,8 +3816,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="10"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="1">
         <v>19669</v>
       </c>
@@ -3816,8 +3836,8 @@
       <c r="V23" s="1">
         <v>0.1</v>
       </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="10"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1">
         <v>22149</v>
       </c>
@@ -3836,8 +3856,8 @@
       <c r="AE23" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="10"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="11"/>
       <c r="AI23" s="1">
         <v>25903</v>
       </c>
@@ -3856,8 +3876,8 @@
       <c r="AN23" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="10"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="11"/>
       <c r="AR23" s="1">
         <v>32166</v>
       </c>
@@ -3876,8 +3896,8 @@
       <c r="AW23" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="10"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="11"/>
       <c r="BA23" s="1">
         <v>46999</v>
       </c>
@@ -3898,12 +3918,12 @@
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="1">
         <v>46879</v>
       </c>
@@ -3919,8 +3939,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="10"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="1">
         <v>19821</v>
       </c>
@@ -3939,8 +3959,8 @@
       <c r="V24" s="1">
         <v>0.1</v>
       </c>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="10"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="1">
         <v>22182</v>
       </c>
@@ -3959,8 +3979,8 @@
       <c r="AE24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="10"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="11"/>
       <c r="AI24" s="1">
         <v>25960</v>
       </c>
@@ -3979,8 +3999,8 @@
       <c r="AN24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="10"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="11"/>
       <c r="AR24" s="1">
         <v>32229</v>
       </c>
@@ -3999,8 +4019,8 @@
       <c r="AW24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY24" s="12"/>
-      <c r="AZ24" s="10"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="11"/>
       <c r="BA24" s="1">
         <v>47478</v>
       </c>
@@ -4021,12 +4041,12 @@
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="1">
         <v>46574</v>
       </c>
@@ -4042,8 +4062,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="10"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="11"/>
       <c r="Q25" s="1">
         <v>19831</v>
       </c>
@@ -4062,8 +4082,8 @@
       <c r="V25" s="1">
         <v>0.1</v>
       </c>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="10"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="1">
         <v>22182</v>
       </c>
@@ -4082,8 +4102,8 @@
       <c r="AE25" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="10"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="11"/>
       <c r="AI25" s="1">
         <v>25745</v>
       </c>
@@ -4102,8 +4122,8 @@
       <c r="AN25" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="10"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="11"/>
       <c r="AR25" s="1">
         <v>32081</v>
       </c>
@@ -4122,8 +4142,8 @@
       <c r="AW25" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY25" s="12"/>
-      <c r="AZ25" s="10"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="11"/>
       <c r="BA25" s="1">
         <v>47320</v>
       </c>
@@ -4144,12 +4164,12 @@
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="1">
         <v>46960</v>
       </c>
@@ -4165,8 +4185,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="11"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="12"/>
       <c r="Q26" s="1">
         <v>19788</v>
       </c>
@@ -4185,8 +4205,8 @@
       <c r="V26" s="1">
         <v>0.1</v>
       </c>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="11"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="12"/>
       <c r="Z26" s="1">
         <v>22176</v>
       </c>
@@ -4205,8 +4225,8 @@
       <c r="AE26" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="11"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="12"/>
       <c r="AI26" s="1">
         <v>25703</v>
       </c>
@@ -4225,8 +4245,8 @@
       <c r="AN26" s="1">
         <v>0.1</v>
       </c>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="11"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="12"/>
       <c r="AR26" s="1">
         <v>32130</v>
       </c>
@@ -4245,8 +4265,8 @@
       <c r="AW26" s="1">
         <v>0.1</v>
       </c>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="11"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="12"/>
       <c r="BA26" s="1">
         <v>46894</v>
       </c>
@@ -4376,7 +4396,7 @@
       <c r="I2" s="1">
         <v>0.1</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4408,7 +4428,7 @@
       <c r="I3" s="1">
         <v>0.1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4440,7 +4460,7 @@
       <c r="I4" s="1">
         <v>0.1</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4472,7 +4492,7 @@
       <c r="I5" s="1">
         <v>0.1</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4504,7 +4524,7 @@
       <c r="I6" s="1">
         <v>0.1</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4536,7 +4556,7 @@
       <c r="I7" s="1">
         <v>0.1</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4568,7 +4588,7 @@
       <c r="I8" s="1">
         <v>0.1</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4600,7 +4620,7 @@
       <c r="I9" s="1">
         <v>0.1</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4632,7 +4652,7 @@
       <c r="I10" s="1">
         <v>0.1</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4664,7 +4684,7 @@
       <c r="I11" s="1">
         <v>0.1</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4696,7 +4716,7 @@
       <c r="I12" s="1">
         <v>0.1</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4728,7 +4748,7 @@
       <c r="I13" s="1">
         <v>0.1</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4760,7 +4780,7 @@
       <c r="I14" s="1">
         <v>0.1</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4792,7 +4812,7 @@
       <c r="I15" s="1">
         <v>0.1</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4824,7 +4844,7 @@
       <c r="I16" s="1">
         <v>0.1</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4856,7 +4876,7 @@
       <c r="I17" s="1">
         <v>0.1</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4888,7 +4908,7 @@
       <c r="I18" s="1">
         <v>0.1</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4920,7 +4940,7 @@
       <c r="I19" s="1">
         <v>0.1</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4952,7 +4972,7 @@
       <c r="I20" s="1">
         <v>0.1</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -4984,7 +5004,7 @@
       <c r="I21" s="1">
         <v>0.1</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5016,7 +5036,7 @@
       <c r="I22" s="1">
         <v>0.1</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5048,7 +5068,7 @@
       <c r="I23" s="1">
         <v>0.1</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5080,7 +5100,7 @@
       <c r="I24" s="1">
         <v>0.1</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5112,7 +5132,7 @@
       <c r="I25" s="1">
         <v>0.1</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5144,7 +5164,7 @@
       <c r="I26" s="1">
         <v>0.1</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5235,7 +5255,7 @@
       <c r="I2" s="7">
         <v>10</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5267,7 +5287,7 @@
       <c r="I3" s="7">
         <v>10</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5299,7 +5319,7 @@
       <c r="I4" s="7">
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5331,7 +5351,7 @@
       <c r="I5" s="7">
         <v>10</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5363,7 +5383,7 @@
       <c r="I6" s="7">
         <v>10</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5395,7 +5415,7 @@
       <c r="I7" s="7">
         <v>10</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5427,7 +5447,7 @@
       <c r="I8" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5459,7 +5479,7 @@
       <c r="I9" s="7">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5491,7 +5511,7 @@
       <c r="I10" s="7">
         <v>10</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5523,7 +5543,7 @@
       <c r="I11" s="7">
         <v>10</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5555,7 +5575,7 @@
       <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5587,7 +5607,7 @@
       <c r="I13" s="7">
         <v>10</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5619,7 +5639,7 @@
       <c r="I14" s="7">
         <v>10</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5651,7 +5671,7 @@
       <c r="I15" s="7">
         <v>10</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5683,7 +5703,7 @@
       <c r="I16" s="7">
         <v>10</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5715,7 +5735,7 @@
       <c r="I17" s="7">
         <v>10</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5747,7 +5767,7 @@
       <c r="I18" s="7">
         <v>10</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5779,7 +5799,7 @@
       <c r="I19" s="7">
         <v>10</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5811,7 +5831,7 @@
       <c r="I20" s="7">
         <v>10</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5843,7 +5863,7 @@
       <c r="I21" s="7">
         <v>10</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5875,7 +5895,7 @@
       <c r="I22" s="7">
         <v>10</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5907,7 +5927,7 @@
       <c r="I23" s="7">
         <v>10</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5939,7 +5959,7 @@
       <c r="I24" s="7">
         <v>10</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -5971,7 +5991,7 @@
       <c r="I25" s="7">
         <v>10</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6003,7 +6023,7 @@
       <c r="I26" s="8">
         <v>10</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6094,7 +6114,7 @@
       <c r="I2" s="7">
         <v>10</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6126,7 +6146,7 @@
       <c r="I3" s="7">
         <v>10</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6158,7 +6178,7 @@
       <c r="I4" s="7">
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6190,7 +6210,7 @@
       <c r="I5" s="7">
         <v>10</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6222,7 +6242,7 @@
       <c r="I6" s="7">
         <v>10</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6254,7 +6274,7 @@
       <c r="I7" s="7">
         <v>10</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6286,7 +6306,7 @@
       <c r="I8" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6318,7 +6338,7 @@
       <c r="I9" s="7">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6350,7 +6370,7 @@
       <c r="I10" s="7">
         <v>10</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6382,7 +6402,7 @@
       <c r="I11" s="7">
         <v>10</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6414,7 +6434,7 @@
       <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6446,7 +6466,7 @@
       <c r="I13" s="7">
         <v>10</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6478,7 +6498,7 @@
       <c r="I14" s="7">
         <v>10</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6510,7 +6530,7 @@
       <c r="I15" s="7">
         <v>10</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6542,7 +6562,7 @@
       <c r="I16" s="7">
         <v>10</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6574,7 +6594,7 @@
       <c r="I17" s="7">
         <v>10</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6606,7 +6626,7 @@
       <c r="I18" s="7">
         <v>10</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6638,7 +6658,7 @@
       <c r="I19" s="7">
         <v>10</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6670,7 +6690,7 @@
       <c r="I20" s="7">
         <v>10</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6702,7 +6722,7 @@
       <c r="I21" s="7">
         <v>10</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6734,7 +6754,7 @@
       <c r="I22" s="7">
         <v>10</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6766,7 +6786,7 @@
       <c r="I23" s="7">
         <v>10</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6798,7 +6818,7 @@
       <c r="I24" s="7">
         <v>10</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6830,7 +6850,7 @@
       <c r="I25" s="7">
         <v>10</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6862,7 +6882,7 @@
       <c r="I26" s="8">
         <v>10</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6953,7 +6973,7 @@
       <c r="I2" s="7">
         <v>10</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -6985,7 +7005,7 @@
       <c r="I3" s="7">
         <v>10</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7017,7 +7037,7 @@
       <c r="I4" s="7">
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7049,7 +7069,7 @@
       <c r="I5" s="7">
         <v>10</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7081,7 +7101,7 @@
       <c r="I6" s="7">
         <v>10</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7113,7 +7133,7 @@
       <c r="I7" s="7">
         <v>10</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7145,7 +7165,7 @@
       <c r="I8" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7177,7 +7197,7 @@
       <c r="I9" s="7">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7209,7 +7229,7 @@
       <c r="I10" s="7">
         <v>10</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7241,7 +7261,7 @@
       <c r="I11" s="7">
         <v>10</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7273,7 +7293,7 @@
       <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7305,7 +7325,7 @@
       <c r="I13" s="7">
         <v>10</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7337,7 +7357,7 @@
       <c r="I14" s="7">
         <v>10</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7369,7 +7389,7 @@
       <c r="I15" s="7">
         <v>10</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7401,7 +7421,7 @@
       <c r="I16" s="7">
         <v>10</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7433,7 +7453,7 @@
       <c r="I17" s="7">
         <v>10</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7465,7 +7485,7 @@
       <c r="I18" s="7">
         <v>10</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7497,7 +7517,7 @@
       <c r="I19" s="7">
         <v>10</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7529,7 +7549,7 @@
       <c r="I20" s="7">
         <v>10</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7561,7 +7581,7 @@
       <c r="I21" s="7">
         <v>10</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7593,7 +7613,7 @@
       <c r="I22" s="7">
         <v>10</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7625,7 +7645,7 @@
       <c r="I23" s="7">
         <v>10</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7657,7 +7677,7 @@
       <c r="I24" s="7">
         <v>10</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7689,7 +7709,7 @@
       <c r="I25" s="7">
         <v>10</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7721,7 +7741,7 @@
       <c r="I26" s="8">
         <v>10</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7735,7 +7755,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7812,7 +7832,7 @@
       <c r="I2" s="7">
         <v>10</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7844,7 +7864,7 @@
       <c r="I3" s="7">
         <v>10</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7876,7 +7896,7 @@
       <c r="I4" s="7">
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7908,7 +7928,7 @@
       <c r="I5" s="7">
         <v>10</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7940,7 +7960,7 @@
       <c r="I6" s="7">
         <v>10</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -7972,7 +7992,7 @@
       <c r="I7" s="7">
         <v>10</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8004,7 +8024,7 @@
       <c r="I8" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8036,7 +8056,7 @@
       <c r="I9" s="7">
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8068,7 +8088,7 @@
       <c r="I10" s="7">
         <v>10</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8100,7 +8120,7 @@
       <c r="I11" s="7">
         <v>10</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8132,7 +8152,7 @@
       <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8164,7 +8184,7 @@
       <c r="I13" s="7">
         <v>10</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8196,7 +8216,7 @@
       <c r="I14" s="7">
         <v>10</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8228,7 +8248,7 @@
       <c r="I15" s="7">
         <v>10</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8260,7 +8280,7 @@
       <c r="I16" s="7">
         <v>10</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8292,7 +8312,7 @@
       <c r="I17" s="7">
         <v>10</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8324,7 +8344,7 @@
       <c r="I18" s="7">
         <v>10</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8356,7 +8376,7 @@
       <c r="I19" s="7">
         <v>10</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8388,7 +8408,7 @@
       <c r="I20" s="7">
         <v>10</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8420,7 +8440,7 @@
       <c r="I21" s="7">
         <v>10</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8452,7 +8472,7 @@
       <c r="I22" s="7">
         <v>10</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8484,7 +8504,7 @@
       <c r="I23" s="7">
         <v>10</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8516,7 +8536,7 @@
       <c r="I24" s="7">
         <v>10</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8548,7 +8568,7 @@
       <c r="I25" s="7">
         <v>10</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="9">
         <v>22.19</v>
       </c>
     </row>
@@ -8580,7 +8600,7 @@
       <c r="I26" s="8">
         <v>10</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="9">
         <v>22.19</v>
       </c>
     </row>
